--- a/Hybrid_Based_Model.xlsx
+++ b/Hybrid_Based_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\james\IFOA_WG_Capital_Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38308A6C-3988-4456-A6C5-2E69F1BED7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D680D2CF-1493-4341-8CC7-69A9AC5436CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Underwriting" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="75">
   <si>
     <t>Poisson_Parameter</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>theta</t>
+  </si>
+  <si>
+    <t>Class_DoF</t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3127CAE5-DDEB-4810-904E-F61DE554266B}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,6 +1082,14 @@
       </c>
       <c r="B3">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2242,8 +2253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Hybrid_Based_Model.xlsx
+++ b/Hybrid_Based_Model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\james\IFOA_WG_Capital_Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D680D2CF-1493-4341-8CC7-69A9AC5436CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282E5BD5-6E3C-4618-8B6A-66C694612D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="38560" windowHeight="21040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Underwriting" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Inflation_Class" sheetId="7" r:id="rId7"/>
     <sheet name="Reinsurance" sheetId="8" r:id="rId8"/>
     <sheet name="Cat Reinsurance" sheetId="17" r:id="rId9"/>
-    <sheet name="Correlation Matrix" sheetId="9" r:id="rId10"/>
+    <sheet name="Correlation Matrix" sheetId="18" r:id="rId10"/>
     <sheet name="Correlation Inputs" sheetId="10" r:id="rId11"/>
     <sheet name="Expense Inputs" sheetId="11" r:id="rId12"/>
     <sheet name="Yield Curve" sheetId="12" r:id="rId13"/>
@@ -71,19 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="75">
-  <si>
-    <t>Poisson_Parameter</t>
-  </si>
-  <si>
-    <t>GDP_Shape_Parameter</t>
-  </si>
-  <si>
-    <t>GDP_Scale_Parameter</t>
-  </si>
-  <si>
-    <t>GDP_Loc_Parameter</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="75">
   <si>
     <t>Gamma_Alpha_Parameter</t>
   </si>
@@ -296,16 +284,29 @@
   </si>
   <si>
     <t>Class_DoF</t>
+  </si>
+  <si>
+    <t>UW</t>
+  </si>
+  <si>
+    <t>Res</t>
+  </si>
+  <si>
+    <t>Mean LR</t>
+  </si>
+  <si>
+    <t>CoV LR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -339,7 +340,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -373,13 +374,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -395,11 +410,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="2" xr:uid="{D5DF9C5C-351B-49FC-8C3B-BFCF08F30495}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -858,120 +880,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="4">
         <v>1887000000</v>
       </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>0.4</v>
-      </c>
-      <c r="E2">
-        <v>21434272.127814323</v>
-      </c>
-      <c r="F2">
-        <v>6176213.1203094749</v>
-      </c>
-      <c r="G2">
-        <v>2.1665774084699665</v>
-      </c>
-      <c r="H2">
-        <v>387246722.29302722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.67938021460906595</v>
+      </c>
+      <c r="E2" s="5">
+        <f>1/D2^2</f>
+        <v>2.1665774080000006</v>
+      </c>
+      <c r="F2" s="12">
+        <f>C2*B2/E2</f>
+        <v>435479478.60813278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>3050000000</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>0.4</v>
-      </c>
-      <c r="E3">
-        <v>12123239.056982597</v>
-      </c>
-      <c r="F3">
-        <v>47594601.571695596</v>
-      </c>
-      <c r="G3">
-        <v>6.9249013413173603</v>
-      </c>
-      <c r="H3">
-        <v>163179220.0779942</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.38000840708731226</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E4" si="0">1/D3^2</f>
+        <v>6.9249013410000009</v>
+      </c>
+      <c r="F3" s="12">
+        <f>C3*B3/E3</f>
+        <v>264263692.70637667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>1887000000</v>
       </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>0.4</v>
-      </c>
-      <c r="E4">
-        <v>10012524.013125015</v>
-      </c>
-      <c r="F4">
-        <v>39212459.978124946</v>
-      </c>
-      <c r="G4">
-        <v>6.9243640207395618</v>
-      </c>
-      <c r="H4">
-        <v>111057130.6888963</v>
-      </c>
+      <c r="C4" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.38002315083530841</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="0"/>
+        <v>6.9243640209999997</v>
+      </c>
+      <c r="F4" s="12">
+        <f>C4*B4/E4</f>
+        <v>190761201.46110383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -979,66 +996,212 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50CD9001-998B-4E20-AD63-7CEFD92BA227}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662011E9-4160-426D-9445-2C1F44873662}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:D1">TRANSPOSE(A2:A4)</f>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="str">
+        <f t="array" ref="C2:H2">TRANSPOSE(B3:B8)</f>
         <v>Specialty</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D2" s="5" t="str">
         <v>Property</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E2" s="5" t="str">
         <v>Liability</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
+      <c r="F2" s="5" t="str">
+        <v>Specialty</v>
+      </c>
+      <c r="G2" s="5" t="str">
+        <v>Property</v>
+      </c>
+      <c r="H2" s="5" t="str">
+        <v>Liability</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D3" s="5">
         <v>0.35</v>
       </c>
-      <c r="D2">
+      <c r="E3" s="5">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+      <c r="F3" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
         <v>0.35</v>
       </c>
-      <c r="C3">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E4" s="5">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
+      <c r="F4" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
         <v>0.54</v>
       </c>
-      <c r="C4">
+      <c r="D5" s="5">
         <v>0.48</v>
       </c>
-      <c r="D4">
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.54</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="H8" s="5">
         <v>1</v>
       </c>
     </row>
@@ -1051,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3127CAE5-DDEB-4810-904E-F61DE554266B}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,15 +1225,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>1.2</v>
@@ -1078,7 +1241,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>1.5</v>
@@ -1086,7 +1249,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1112,15 +1275,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5">
         <v>0.4</v>
@@ -1128,7 +1291,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5">
         <v>0.1</v>
@@ -1157,10 +1320,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1422,16 +1585,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1827,62 +1990,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4">
-        <v>5000000000</v>
-      </c>
-      <c r="C2">
-        <v>0.2</v>
+        <v>2000000000</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.1</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4">
         <v>1000000000</v>
       </c>
-      <c r="C3">
-        <v>0.2</v>
+      <c r="C3" s="5">
+        <v>0.05</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>8000000000</v>
-      </c>
-      <c r="C4">
-        <v>0.5</v>
+        <v>4000000000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.15</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1909,21 +2073,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -1931,10 +2095,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C3" s="5">
         <v>0.02</v>
@@ -1942,10 +2106,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5">
         <v>0.02</v>
@@ -1953,10 +2117,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -1964,10 +2128,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" s="5">
         <v>0.1</v>
@@ -1975,10 +2139,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5">
         <v>0.25</v>
@@ -1986,10 +2150,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -1997,10 +2161,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5">
         <v>0.1</v>
@@ -2008,10 +2172,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7">
         <v>14000000000</v>
@@ -2019,10 +2183,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5">
         <v>0.5</v>
@@ -2030,10 +2194,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5">
         <v>0.02</v>
@@ -2041,10 +2205,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13" s="5">
         <v>-2</v>
@@ -2052,10 +2216,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" s="5">
         <v>0.2</v>
@@ -2063,10 +2227,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" s="5">
         <v>0.5</v>
@@ -2074,10 +2238,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C16" s="5">
         <v>-1</v>
@@ -2085,10 +2249,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -2096,10 +2260,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C18" s="5">
         <v>0.03</v>
@@ -2145,15 +2309,15 @@
         <v>credit_spread</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2161,7 +2325,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3" s="5">
         <v>-0.2</v>
@@ -2172,7 +2336,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="5">
         <v>0.2</v>
@@ -2186,7 +2350,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B5" s="5">
         <v>-0.3</v>
@@ -2203,7 +2367,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5">
         <v>0.2</v>
@@ -2223,7 +2387,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B7" s="5">
         <v>0.5</v>
@@ -2264,21 +2428,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5">
         <v>0.01</v>
@@ -2286,10 +2450,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5">
         <v>0.05</v>
@@ -2297,10 +2461,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C4" s="5">
         <v>0.1</v>
@@ -2308,10 +2472,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
@@ -2319,10 +2483,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
@@ -2330,10 +2494,10 @@
     </row>
     <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C7" s="5">
         <v>1.5</v>
@@ -2341,120 +2505,120 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5">
         <v>0.1</v>
@@ -2462,10 +2626,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C19" s="5">
         <v>0.1</v>
@@ -2473,10 +2637,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C20" s="5">
         <v>0.1</v>
@@ -2484,10 +2648,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C21" s="5">
         <v>0.1</v>
@@ -2495,10 +2659,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C22" s="5">
         <v>0.1</v>
@@ -2506,10 +2670,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C23" s="5">
         <v>0.1</v>
@@ -2517,10 +2681,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C24" s="5">
         <v>0.1</v>
@@ -2528,10 +2692,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C25" s="5">
         <v>0.1</v>
@@ -2539,10 +2703,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C26" s="5">
         <v>0.1</v>
@@ -2550,10 +2714,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C27" s="5">
         <v>0.1</v>
@@ -2579,15 +2743,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -2595,7 +2759,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5">
         <v>15</v>
@@ -2604,7 +2768,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5">
         <v>2</v>
@@ -2627,15 +2791,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2643,7 +2807,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0.7</v>
@@ -2651,7 +2815,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1.5</v>
@@ -2674,27 +2838,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>0.25</v>
@@ -2714,7 +2878,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0.25</v>
@@ -2734,7 +2898,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0.3</v>
@@ -2775,19 +2939,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" s="4">
         <v>100000000</v>
@@ -2799,7 +2963,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="4">
         <v>500000000</v>
@@ -2810,7 +2974,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B4" s="4">
         <v>300000000</v>
@@ -2821,7 +2985,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B5" s="4">
         <v>1000000000</v>
